--- a/NamesModel/Assets/Predicted_Names_Other_Female.xlsx
+++ b/NamesModel/Assets/Predicted_Names_Other_Female.xlsx
@@ -49477,109 +49477,109 @@
         <v>2022</v>
       </c>
       <c r="B59" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
         <v>5</v>
       </c>
-      <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
+        <v>58</v>
+      </c>
+      <c r="I59" t="n">
         <v>3</v>
       </c>
-      <c r="H59" t="n">
-        <v>21</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M59" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O59" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI59" t="n">
         <v>8</v>
       </c>
-      <c r="AH59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>3</v>
-      </c>
       <c r="AJ59" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AK59" t="n">
         <v>2</v>
@@ -49594,130 +49594,130 @@
         <v>1</v>
       </c>
       <c r="AO59" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AP59" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AQ59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>39</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU59" t="n">
         <v>5</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>27</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>2</v>
       </c>
       <c r="AV59" t="n">
         <v>1</v>
       </c>
       <c r="AW59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY59" t="n">
         <v>19</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB59" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="BC59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>77</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>16</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV59" t="n">
         <v>1</v>
       </c>
-      <c r="BD59" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH59" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI59" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL59" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN59" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO59" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP59" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ59" t="n">
-        <v>22</v>
-      </c>
-      <c r="BR59" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS59" t="n">
-        <v>24</v>
-      </c>
-      <c r="BT59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU59" t="n">
+      <c r="BW59" t="n">
         <v>6</v>
       </c>
-      <c r="BV59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW59" t="n">
-        <v>3</v>
-      </c>
       <c r="BX59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BZ59" t="n">
         <v>0</v>
       </c>
       <c r="CA59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB59" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="CC59" t="n">
         <v>6</v>
       </c>
       <c r="CD59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE59" t="n">
         <v>0</v>
@@ -49726,7 +49726,7 @@
         <v>1</v>
       </c>
       <c r="CG59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH59" t="n">
         <v>2</v>
@@ -49735,16 +49735,16 @@
         <v>1</v>
       </c>
       <c r="CJ59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM59" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CN59" t="n">
         <v>2</v>
@@ -49753,58 +49753,58 @@
         <v>1</v>
       </c>
       <c r="CP59" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ59" t="n">
+        <v>15</v>
+      </c>
+      <c r="CR59" t="n">
         <v>1</v>
       </c>
-      <c r="CQ59" t="n">
-        <v>29</v>
-      </c>
-      <c r="CR59" t="n">
-        <v>2</v>
-      </c>
       <c r="CS59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CT59" t="n">
+        <v>9</v>
+      </c>
+      <c r="CU59" t="n">
+        <v>9</v>
+      </c>
+      <c r="CV59" t="n">
         <v>18</v>
       </c>
-      <c r="CU59" t="n">
-        <v>12</v>
-      </c>
-      <c r="CV59" t="n">
-        <v>19</v>
-      </c>
       <c r="CW59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CX59" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY59" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB59" t="n">
         <v>1</v>
       </c>
-      <c r="CY59" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ59" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA59" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB59" t="n">
-        <v>2</v>
-      </c>
       <c r="DC59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DD59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DG59" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="DH59" t="n">
         <v>2</v>
@@ -49813,22 +49813,22 @@
         <v>1</v>
       </c>
       <c r="DJ59" t="n">
+        <v>11</v>
+      </c>
+      <c r="DK59" t="n">
         <v>9</v>
       </c>
-      <c r="DK59" t="n">
-        <v>3</v>
-      </c>
       <c r="DL59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DO59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP59" t="n">
         <v>2</v>
@@ -49837,133 +49837,133 @@
         <v>3</v>
       </c>
       <c r="DR59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DS59" t="n">
         <v>2</v>
       </c>
       <c r="DT59" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU59" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV59" t="n">
+        <v>11</v>
+      </c>
+      <c r="DW59" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX59" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY59" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ59" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA59" t="n">
+        <v>4</v>
+      </c>
+      <c r="EB59" t="n">
         <v>3</v>
       </c>
-      <c r="DU59" t="n">
-        <v>9</v>
-      </c>
-      <c r="DV59" t="n">
-        <v>6</v>
-      </c>
-      <c r="DW59" t="n">
-        <v>11</v>
-      </c>
-      <c r="DX59" t="n">
-        <v>2</v>
-      </c>
-      <c r="DY59" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ59" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA59" t="n">
-        <v>9</v>
-      </c>
-      <c r="EB59" t="n">
-        <v>2</v>
-      </c>
       <c r="EC59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED59" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="EE59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EF59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="EG59" t="n">
         <v>2</v>
       </c>
       <c r="EH59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EI59" t="n">
+        <v>10</v>
+      </c>
+      <c r="EJ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK59" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL59" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM59" t="n">
         <v>8</v>
       </c>
-      <c r="EJ59" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL59" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM59" t="n">
-        <v>3</v>
-      </c>
       <c r="EN59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EO59" t="n">
         <v>3</v>
       </c>
       <c r="EP59" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="EQ59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER59" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="ES59" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="ET59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EV59" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="EW59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EY59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EZ59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FA59" t="n">
         <v>1</v>
       </c>
       <c r="FB59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FC59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FD59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FE59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF59" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="FG59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FH59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="FI59" t="n">
         <v>1</v>
@@ -49972,266 +49972,266 @@
         <v>2</v>
       </c>
       <c r="FK59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL59" t="n">
         <v>5</v>
       </c>
       <c r="FM59" t="n">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="FN59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="FO59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FP59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FQ59" t="n">
         <v>0</v>
       </c>
       <c r="FR59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FS59" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="FT59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FV59" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="FW59" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="FX59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="FY59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FZ59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GA59" t="n">
         <v>1</v>
       </c>
       <c r="GB59" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="GC59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GD59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE59" t="n">
+        <v>8</v>
+      </c>
+      <c r="GF59" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG59" t="n">
+        <v>11</v>
+      </c>
+      <c r="GH59" t="n">
+        <v>5</v>
+      </c>
+      <c r="GI59" t="n">
+        <v>2</v>
+      </c>
+      <c r="GJ59" t="n">
         <v>3</v>
       </c>
-      <c r="GF59" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG59" t="n">
-        <v>9</v>
-      </c>
-      <c r="GH59" t="n">
-        <v>4</v>
-      </c>
-      <c r="GI59" t="n">
-        <v>2</v>
-      </c>
-      <c r="GJ59" t="n">
-        <v>1</v>
-      </c>
       <c r="GK59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GL59" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="GM59" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="GN59" t="n">
         <v>1</v>
       </c>
       <c r="GO59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GP59" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="GR59" t="n">
+        <v>6</v>
+      </c>
+      <c r="GS59" t="n">
+        <v>22</v>
+      </c>
+      <c r="GT59" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU59" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV59" t="n">
+        <v>10</v>
+      </c>
+      <c r="GW59" t="n">
+        <v>7</v>
+      </c>
+      <c r="GX59" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY59" t="n">
+        <v>11</v>
+      </c>
+      <c r="GZ59" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC59" t="n">
+        <v>20</v>
+      </c>
+      <c r="HD59" t="n">
         <v>1</v>
       </c>
-      <c r="GQ59" t="n">
-        <v>2</v>
-      </c>
-      <c r="GR59" t="n">
-        <v>5</v>
-      </c>
-      <c r="GS59" t="n">
-        <v>16</v>
-      </c>
-      <c r="GT59" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU59" t="n">
-        <v>2</v>
-      </c>
-      <c r="GV59" t="n">
-        <v>13</v>
-      </c>
-      <c r="GW59" t="n">
-        <v>6</v>
-      </c>
-      <c r="GX59" t="n">
-        <v>3</v>
-      </c>
-      <c r="GY59" t="n">
+      <c r="HE59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG59" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH59" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI59" t="n">
+        <v>82</v>
+      </c>
+      <c r="HJ59" t="n">
         <v>8</v>
       </c>
-      <c r="GZ59" t="n">
-        <v>76</v>
-      </c>
-      <c r="HA59" t="n">
-        <v>2</v>
-      </c>
-      <c r="HB59" t="n">
-        <v>2</v>
-      </c>
-      <c r="HC59" t="n">
-        <v>9</v>
-      </c>
-      <c r="HD59" t="n">
-        <v>2</v>
-      </c>
-      <c r="HE59" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF59" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG59" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH59" t="n">
-        <v>6</v>
-      </c>
-      <c r="HI59" t="n">
-        <v>46</v>
-      </c>
-      <c r="HJ59" t="n">
+      <c r="HK59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP59" t="n">
         <v>4</v>
       </c>
-      <c r="HK59" t="n">
-        <v>2</v>
-      </c>
-      <c r="HL59" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM59" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN59" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO59" t="n">
-        <v>4</v>
-      </c>
-      <c r="HP59" t="n">
-        <v>2</v>
-      </c>
       <c r="HQ59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="HR59" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="HS59" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="HT59" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="HU59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HV59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HW59" t="n">
         <v>1</v>
       </c>
       <c r="HX59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="HY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ59" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC59" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID59" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE59" t="n">
+        <v>6</v>
+      </c>
+      <c r="IF59" t="n">
+        <v>14</v>
+      </c>
+      <c r="IG59" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH59" t="n">
+        <v>2</v>
+      </c>
+      <c r="II59" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK59" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL59" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM59" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN59" t="n">
         <v>1</v>
       </c>
-      <c r="HZ59" t="n">
-        <v>8</v>
-      </c>
-      <c r="IA59" t="n">
-        <v>3</v>
-      </c>
-      <c r="IB59" t="n">
-        <v>2</v>
-      </c>
-      <c r="IC59" t="n">
-        <v>9</v>
-      </c>
-      <c r="ID59" t="n">
-        <v>2</v>
-      </c>
-      <c r="IE59" t="n">
-        <v>3</v>
-      </c>
-      <c r="IF59" t="n">
-        <v>5</v>
-      </c>
-      <c r="IG59" t="n">
-        <v>5</v>
-      </c>
-      <c r="IH59" t="n">
-        <v>2</v>
-      </c>
-      <c r="II59" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ59" t="n">
+      <c r="IO59" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>22</v>
+      </c>
+      <c r="IS59" t="n">
         <v>4</v>
       </c>
-      <c r="IK59" t="n">
-        <v>10</v>
-      </c>
-      <c r="IL59" t="n">
-        <v>6</v>
-      </c>
-      <c r="IM59" t="n">
-        <v>8</v>
-      </c>
-      <c r="IN59" t="n">
-        <v>2</v>
-      </c>
-      <c r="IO59" t="n">
-        <v>2</v>
-      </c>
-      <c r="IP59" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ59" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR59" t="n">
-        <v>8</v>
-      </c>
-      <c r="IS59" t="n">
-        <v>3</v>
-      </c>
       <c r="IT59" t="n">
         <v>2</v>
       </c>
@@ -50242,28 +50242,28 @@
         <v>2</v>
       </c>
       <c r="IW59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IX59" t="n">
         <v>1</v>
       </c>
       <c r="IY59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IZ59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JA59" t="n">
         <v>0</v>
       </c>
       <c r="JB59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JD59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JE59" t="n">
         <v>0</v>
@@ -50272,40 +50272,40 @@
         <v>1</v>
       </c>
       <c r="JG59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JH59" t="n">
         <v>2</v>
       </c>
       <c r="JI59" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="JJ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK59" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL59" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM59" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO59" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP59" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ59" t="n">
         <v>5</v>
       </c>
-      <c r="JK59" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL59" t="n">
-        <v>7</v>
-      </c>
-      <c r="JM59" t="n">
-        <v>3</v>
-      </c>
-      <c r="JN59" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO59" t="n">
-        <v>1</v>
-      </c>
-      <c r="JP59" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ59" t="n">
-        <v>4</v>
-      </c>
       <c r="JR59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -50313,109 +50313,109 @@
         <v>2023</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
         <v>5</v>
       </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
+        <v>57</v>
+      </c>
+      <c r="I60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="n">
-        <v>22</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M60" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>10</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>3</v>
       </c>
       <c r="AK60" t="n">
         <v>2</v>
@@ -50427,37 +50427,37 @@
         <v>3</v>
       </c>
       <c r="AN60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO60" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AP60" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AQ60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU60" t="n">
         <v>5</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>2</v>
       </c>
       <c r="AV60" t="n">
         <v>1</v>
       </c>
       <c r="AW60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY60" t="n">
         <v>19</v>
@@ -50466,94 +50466,94 @@
         <v>0</v>
       </c>
       <c r="BA60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB60" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="BC60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>78</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR60" t="n">
         <v>1</v>
       </c>
-      <c r="BD60" t="n">
-        <v>51</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL60" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN60" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO60" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP60" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ60" t="n">
-        <v>23</v>
-      </c>
-      <c r="BR60" t="n">
-        <v>2</v>
-      </c>
       <c r="BS60" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="BT60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW60" t="n">
         <v>6</v>
       </c>
-      <c r="BV60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW60" t="n">
-        <v>3</v>
-      </c>
       <c r="BX60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BZ60" t="n">
         <v>0</v>
       </c>
       <c r="CA60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB60" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="CC60" t="n">
         <v>6</v>
       </c>
       <c r="CD60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE60" t="n">
         <v>0</v>
@@ -50562,7 +50562,7 @@
         <v>1</v>
       </c>
       <c r="CG60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH60" t="n">
         <v>2</v>
@@ -50571,16 +50571,16 @@
         <v>1</v>
       </c>
       <c r="CJ60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM60" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CN60" t="n">
         <v>3</v>
@@ -50589,58 +50589,58 @@
         <v>1</v>
       </c>
       <c r="CP60" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ60" t="n">
+        <v>16</v>
+      </c>
+      <c r="CR60" t="n">
         <v>1</v>
       </c>
-      <c r="CQ60" t="n">
-        <v>30</v>
-      </c>
-      <c r="CR60" t="n">
-        <v>3</v>
-      </c>
       <c r="CS60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CT60" t="n">
+        <v>9</v>
+      </c>
+      <c r="CU60" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV60" t="n">
         <v>18</v>
       </c>
-      <c r="CU60" t="n">
-        <v>12</v>
-      </c>
-      <c r="CV60" t="n">
-        <v>19</v>
-      </c>
       <c r="CW60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CX60" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY60" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA60" t="n">
         <v>1</v>
       </c>
-      <c r="CY60" t="n">
+      <c r="DB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC60" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD60" t="n">
+        <v>22</v>
+      </c>
+      <c r="DE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF60" t="n">
         <v>1</v>
       </c>
-      <c r="CZ60" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA60" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB60" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC60" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD60" t="n">
-        <v>24</v>
-      </c>
-      <c r="DE60" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF60" t="n">
-        <v>2</v>
-      </c>
       <c r="DG60" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="DH60" t="n">
         <v>2</v>
@@ -50649,22 +50649,22 @@
         <v>1</v>
       </c>
       <c r="DJ60" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DK60" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="DL60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DO60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP60" t="n">
         <v>2</v>
@@ -50673,133 +50673,133 @@
         <v>3</v>
       </c>
       <c r="DR60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DS60" t="n">
         <v>2</v>
       </c>
       <c r="DT60" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU60" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV60" t="n">
+        <v>11</v>
+      </c>
+      <c r="DW60" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX60" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY60" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ60" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA60" t="n">
         <v>3</v>
       </c>
-      <c r="DU60" t="n">
-        <v>9</v>
-      </c>
-      <c r="DV60" t="n">
-        <v>6</v>
-      </c>
-      <c r="DW60" t="n">
-        <v>11</v>
-      </c>
-      <c r="DX60" t="n">
-        <v>2</v>
-      </c>
-      <c r="DY60" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ60" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA60" t="n">
-        <v>10</v>
-      </c>
       <c r="EB60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EC60" t="n">
         <v>1</v>
       </c>
       <c r="ED60" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="EE60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EF60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="EG60" t="n">
         <v>2</v>
       </c>
       <c r="EH60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EI60" t="n">
+        <v>10</v>
+      </c>
+      <c r="EJ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK60" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL60" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM60" t="n">
         <v>8</v>
       </c>
-      <c r="EJ60" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL60" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM60" t="n">
-        <v>3</v>
-      </c>
       <c r="EN60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EO60" t="n">
         <v>3</v>
       </c>
       <c r="EP60" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="EQ60" t="n">
         <v>2</v>
       </c>
       <c r="ER60" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="ES60" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="ET60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EV60" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="EW60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EY60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EZ60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FA60" t="n">
         <v>1</v>
       </c>
       <c r="FB60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FC60" t="n">
         <v>2</v>
       </c>
       <c r="FD60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FE60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF60" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG60" t="n">
         <v>4</v>
       </c>
-      <c r="FG60" t="n">
-        <v>2</v>
-      </c>
       <c r="FH60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="FI60" t="n">
         <v>1</v>
@@ -50808,49 +50808,49 @@
         <v>2</v>
       </c>
       <c r="FK60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL60" t="n">
         <v>5</v>
       </c>
       <c r="FM60" t="n">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="FN60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FO60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FP60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FQ60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FS60" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="FT60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FV60" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="FW60" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="FX60" t="n">
         <v>4</v>
       </c>
       <c r="FY60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FZ60" t="n">
         <v>2</v>
@@ -50859,175 +50859,175 @@
         <v>1</v>
       </c>
       <c r="GB60" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="GC60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GD60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="GF60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GG60" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="GH60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="GI60" t="n">
         <v>2</v>
       </c>
       <c r="GJ60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GL60" t="n">
         <v>24</v>
       </c>
       <c r="GM60" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="GN60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GQ60" t="n">
         <v>2</v>
       </c>
       <c r="GR60" t="n">
+        <v>6</v>
+      </c>
+      <c r="GS60" t="n">
+        <v>23</v>
+      </c>
+      <c r="GT60" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU60" t="n">
         <v>5</v>
       </c>
-      <c r="GS60" t="n">
-        <v>17</v>
-      </c>
-      <c r="GT60" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU60" t="n">
-        <v>2</v>
-      </c>
       <c r="GV60" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="GW60" t="n">
         <v>6</v>
       </c>
       <c r="GX60" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY60" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ60" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA60" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC60" t="n">
+        <v>19</v>
+      </c>
+      <c r="HD60" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE60" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF60" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG60" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH60" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI60" t="n">
+        <v>82</v>
+      </c>
+      <c r="HJ60" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK60" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM60" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO60" t="n">
         <v>3</v>
       </c>
-      <c r="GY60" t="n">
-        <v>9</v>
-      </c>
-      <c r="GZ60" t="n">
-        <v>77</v>
-      </c>
-      <c r="HA60" t="n">
-        <v>2</v>
-      </c>
-      <c r="HB60" t="n">
-        <v>2</v>
-      </c>
-      <c r="HC60" t="n">
-        <v>9</v>
-      </c>
-      <c r="HD60" t="n">
-        <v>2</v>
-      </c>
-      <c r="HE60" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF60" t="n">
+      <c r="HP60" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ60" t="n">
         <v>1</v>
       </c>
-      <c r="HG60" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH60" t="n">
-        <v>6</v>
-      </c>
-      <c r="HI60" t="n">
-        <v>47</v>
-      </c>
-      <c r="HJ60" t="n">
-        <v>4</v>
-      </c>
-      <c r="HK60" t="n">
-        <v>2</v>
-      </c>
-      <c r="HL60" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM60" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN60" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO60" t="n">
-        <v>4</v>
-      </c>
-      <c r="HP60" t="n">
-        <v>2</v>
-      </c>
-      <c r="HQ60" t="n">
-        <v>5</v>
-      </c>
       <c r="HR60" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="HS60" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="HT60" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="HU60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HV60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HW60" t="n">
         <v>1</v>
       </c>
       <c r="HX60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HY60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="IA60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IB60" t="n">
         <v>2</v>
       </c>
       <c r="IC60" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="ID60" t="n">
         <v>2</v>
       </c>
       <c r="IE60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="IF60" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="IG60" t="n">
         <v>5</v>
@@ -51036,37 +51036,37 @@
         <v>2</v>
       </c>
       <c r="II60" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK60" t="n">
         <v>3</v>
       </c>
-      <c r="IJ60" t="n">
-        <v>4</v>
-      </c>
-      <c r="IK60" t="n">
-        <v>10</v>
-      </c>
       <c r="IL60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="IM60" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="IN60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IO60" t="n">
         <v>2</v>
       </c>
       <c r="IP60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ60" t="n">
         <v>1</v>
       </c>
       <c r="IR60" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="IS60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IT60" t="n">
         <v>2</v>
@@ -51078,34 +51078,34 @@
         <v>2</v>
       </c>
       <c r="IW60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IX60" t="n">
         <v>1</v>
       </c>
       <c r="IY60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IZ60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JA60" t="n">
         <v>0</v>
       </c>
       <c r="JB60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JD60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JE60" t="n">
         <v>0</v>
       </c>
       <c r="JF60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JG60" t="n">
         <v>4</v>
@@ -51114,34 +51114,34 @@
         <v>2</v>
       </c>
       <c r="JI60" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="JJ60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="JK60" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL60" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM60" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN60" t="n">
         <v>1</v>
       </c>
-      <c r="JL60" t="n">
-        <v>7</v>
-      </c>
-      <c r="JM60" t="n">
-        <v>3</v>
-      </c>
-      <c r="JN60" t="n">
-        <v>0</v>
-      </c>
       <c r="JO60" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP60" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR60" t="n">
         <v>1</v>
-      </c>
-      <c r="JP60" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ60" t="n">
-        <v>4</v>
-      </c>
-      <c r="JR60" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -51149,151 +51149,151 @@
         <v>2024</v>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>57</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4</v>
+      </c>
+      <c r="L61" t="n">
+        <v>56</v>
+      </c>
+      <c r="M61" t="n">
         <v>12</v>
       </c>
-      <c r="E61" t="n">
+      <c r="N61" t="n">
         <v>5</v>
       </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="n">
-        <v>22</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2</v>
-      </c>
-      <c r="L61" t="n">
-        <v>31</v>
-      </c>
-      <c r="M61" t="n">
-        <v>8</v>
-      </c>
-      <c r="N61" t="n">
-        <v>3</v>
-      </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB61" t="n">
         <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>10</v>
       </c>
-      <c r="AE61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>3</v>
-      </c>
       <c r="AK61" t="n">
         <v>2</v>
       </c>
       <c r="AL61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM61" t="n">
         <v>3</v>
       </c>
       <c r="AN61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO61" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AP61" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AQ61" t="n">
         <v>6</v>
       </c>
       <c r="AR61" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS61" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
       </c>
       <c r="AU61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV61" t="n">
         <v>1</v>
       </c>
       <c r="AW61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY61" t="n">
         <v>19</v>
@@ -51302,94 +51302,94 @@
         <v>0</v>
       </c>
       <c r="BA61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB61" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="BC61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>79</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR61" t="n">
         <v>1</v>
       </c>
-      <c r="BD61" t="n">
-        <v>53</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI61" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL61" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN61" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO61" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP61" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ61" t="n">
-        <v>23</v>
-      </c>
-      <c r="BR61" t="n">
-        <v>2</v>
-      </c>
       <c r="BS61" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="BT61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW61" t="n">
         <v>6</v>
       </c>
-      <c r="BV61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW61" t="n">
-        <v>3</v>
-      </c>
       <c r="BX61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY61" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BZ61" t="n">
         <v>0</v>
       </c>
       <c r="CA61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB61" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="CC61" t="n">
         <v>6</v>
       </c>
       <c r="CD61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE61" t="n">
         <v>0</v>
@@ -51398,7 +51398,7 @@
         <v>1</v>
       </c>
       <c r="CG61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH61" t="n">
         <v>2</v>
@@ -51407,16 +51407,16 @@
         <v>1</v>
       </c>
       <c r="CJ61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM61" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="CN61" t="n">
         <v>3</v>
@@ -51425,58 +51425,58 @@
         <v>1</v>
       </c>
       <c r="CP61" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ61" t="n">
+        <v>17</v>
+      </c>
+      <c r="CR61" t="n">
         <v>1</v>
       </c>
-      <c r="CQ61" t="n">
-        <v>30</v>
-      </c>
-      <c r="CR61" t="n">
-        <v>3</v>
-      </c>
       <c r="CS61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CT61" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="CU61" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CV61" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="CW61" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CX61" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY61" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA61" t="n">
         <v>1</v>
       </c>
-      <c r="CY61" t="n">
+      <c r="DB61" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC61" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD61" t="n">
+        <v>22</v>
+      </c>
+      <c r="DE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF61" t="n">
         <v>1</v>
       </c>
-      <c r="CZ61" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA61" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB61" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC61" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD61" t="n">
-        <v>24</v>
-      </c>
-      <c r="DE61" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF61" t="n">
-        <v>2</v>
-      </c>
       <c r="DG61" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="DH61" t="n">
         <v>2</v>
@@ -51485,22 +51485,22 @@
         <v>1</v>
       </c>
       <c r="DJ61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DK61" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DL61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DO61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP61" t="n">
         <v>2</v>
@@ -51509,133 +51509,133 @@
         <v>3</v>
       </c>
       <c r="DR61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DS61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DT61" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU61" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV61" t="n">
+        <v>11</v>
+      </c>
+      <c r="DW61" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX61" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY61" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ61" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA61" t="n">
         <v>3</v>
       </c>
-      <c r="DU61" t="n">
-        <v>9</v>
-      </c>
-      <c r="DV61" t="n">
-        <v>6</v>
-      </c>
-      <c r="DW61" t="n">
-        <v>11</v>
-      </c>
-      <c r="DX61" t="n">
-        <v>2</v>
-      </c>
-      <c r="DY61" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ61" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA61" t="n">
-        <v>10</v>
-      </c>
       <c r="EB61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EC61" t="n">
         <v>1</v>
       </c>
       <c r="ED61" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="EE61" t="n">
         <v>12</v>
       </c>
       <c r="EF61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="EG61" t="n">
         <v>2</v>
       </c>
       <c r="EH61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EI61" t="n">
+        <v>10</v>
+      </c>
+      <c r="EJ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK61" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL61" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM61" t="n">
         <v>8</v>
       </c>
-      <c r="EJ61" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL61" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM61" t="n">
+      <c r="EN61" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO61" t="n">
         <v>3</v>
       </c>
-      <c r="EN61" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO61" t="n">
-        <v>4</v>
-      </c>
       <c r="EP61" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="EQ61" t="n">
         <v>2</v>
       </c>
       <c r="ER61" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="ES61" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="ET61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU61" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EV61" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="EW61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EY61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EZ61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FA61" t="n">
         <v>1</v>
       </c>
       <c r="FB61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FC61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FD61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FE61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF61" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG61" t="n">
         <v>4</v>
       </c>
-      <c r="FG61" t="n">
-        <v>2</v>
-      </c>
       <c r="FH61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="FI61" t="n">
         <v>1</v>
@@ -51644,196 +51644,196 @@
         <v>2</v>
       </c>
       <c r="FK61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL61" t="n">
         <v>5</v>
       </c>
       <c r="FM61" t="n">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="FN61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FO61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FP61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FQ61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FS61" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="FT61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FV61" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="FW61" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="FX61" t="n">
         <v>4</v>
       </c>
       <c r="FY61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FZ61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GA61" t="n">
         <v>1</v>
       </c>
       <c r="GB61" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="GC61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GD61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="GF61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GG61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="GH61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="GI61" t="n">
         <v>2</v>
       </c>
       <c r="GJ61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GL61" t="n">
         <v>24</v>
       </c>
       <c r="GM61" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="GN61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GQ61" t="n">
         <v>2</v>
       </c>
       <c r="GR61" t="n">
+        <v>6</v>
+      </c>
+      <c r="GS61" t="n">
+        <v>23</v>
+      </c>
+      <c r="GT61" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU61" t="n">
         <v>5</v>
       </c>
-      <c r="GS61" t="n">
-        <v>17</v>
-      </c>
-      <c r="GT61" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU61" t="n">
-        <v>2</v>
-      </c>
       <c r="GV61" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="GW61" t="n">
         <v>6</v>
       </c>
       <c r="GX61" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY61" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ61" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA61" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB61" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC61" t="n">
+        <v>19</v>
+      </c>
+      <c r="HD61" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE61" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF61" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG61" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH61" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI61" t="n">
+        <v>82</v>
+      </c>
+      <c r="HJ61" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK61" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM61" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO61" t="n">
         <v>3</v>
       </c>
-      <c r="GY61" t="n">
-        <v>9</v>
-      </c>
-      <c r="GZ61" t="n">
-        <v>79</v>
-      </c>
-      <c r="HA61" t="n">
+      <c r="HP61" t="n">
         <v>3</v>
       </c>
-      <c r="HB61" t="n">
-        <v>2</v>
-      </c>
-      <c r="HC61" t="n">
+      <c r="HQ61" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR61" t="n">
+        <v>24</v>
+      </c>
+      <c r="HS61" t="n">
         <v>10</v>
       </c>
-      <c r="HD61" t="n">
-        <v>2</v>
-      </c>
-      <c r="HE61" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF61" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG61" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH61" t="n">
-        <v>6</v>
-      </c>
-      <c r="HI61" t="n">
-        <v>48</v>
-      </c>
-      <c r="HJ61" t="n">
-        <v>4</v>
-      </c>
-      <c r="HK61" t="n">
-        <v>2</v>
-      </c>
-      <c r="HL61" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM61" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN61" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO61" t="n">
-        <v>4</v>
-      </c>
-      <c r="HP61" t="n">
-        <v>2</v>
-      </c>
-      <c r="HQ61" t="n">
-        <v>5</v>
-      </c>
-      <c r="HR61" t="n">
-        <v>28</v>
-      </c>
-      <c r="HS61" t="n">
-        <v>4</v>
-      </c>
       <c r="HT61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="HU61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HV61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HW61" t="n">
         <v>1</v>
@@ -51842,70 +51842,70 @@
         <v>8</v>
       </c>
       <c r="HY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ61" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA61" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB61" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC61" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID61" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE61" t="n">
+        <v>6</v>
+      </c>
+      <c r="IF61" t="n">
+        <v>14</v>
+      </c>
+      <c r="IG61" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH61" t="n">
+        <v>2</v>
+      </c>
+      <c r="II61" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK61" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL61" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM61" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN61" t="n">
         <v>1</v>
       </c>
-      <c r="HZ61" t="n">
-        <v>8</v>
-      </c>
-      <c r="IA61" t="n">
-        <v>3</v>
-      </c>
-      <c r="IB61" t="n">
-        <v>2</v>
-      </c>
-      <c r="IC61" t="n">
-        <v>9</v>
-      </c>
-      <c r="ID61" t="n">
-        <v>2</v>
-      </c>
-      <c r="IE61" t="n">
-        <v>3</v>
-      </c>
-      <c r="IF61" t="n">
-        <v>5</v>
-      </c>
-      <c r="IG61" t="n">
-        <v>6</v>
-      </c>
-      <c r="IH61" t="n">
-        <v>3</v>
-      </c>
-      <c r="II61" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ61" t="n">
-        <v>4</v>
-      </c>
-      <c r="IK61" t="n">
-        <v>10</v>
-      </c>
-      <c r="IL61" t="n">
-        <v>7</v>
-      </c>
-      <c r="IM61" t="n">
-        <v>9</v>
-      </c>
-      <c r="IN61" t="n">
-        <v>2</v>
-      </c>
       <c r="IO61" t="n">
         <v>2</v>
       </c>
       <c r="IP61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ61" t="n">
         <v>1</v>
       </c>
       <c r="IR61" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="IS61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="IT61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IU61" t="n">
         <v>0</v>
@@ -51914,28 +51914,28 @@
         <v>2</v>
       </c>
       <c r="IW61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IX61" t="n">
         <v>1</v>
       </c>
       <c r="IY61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IZ61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JA61" t="n">
         <v>0</v>
       </c>
       <c r="JB61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JD61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JE61" t="n">
         <v>0</v>
@@ -51950,34 +51950,34 @@
         <v>2</v>
       </c>
       <c r="JI61" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="JJ61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="JK61" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL61" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM61" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN61" t="n">
         <v>1</v>
       </c>
-      <c r="JL61" t="n">
-        <v>7</v>
-      </c>
-      <c r="JM61" t="n">
+      <c r="JO61" t="n">
         <v>4</v>
       </c>
-      <c r="JN61" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO61" t="n">
-        <v>1</v>
-      </c>
       <c r="JP61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JQ61" t="n">
         <v>4</v>
       </c>
       <c r="JR61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -51985,109 +51985,109 @@
         <v>2025</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>57</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>7</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>55</v>
+      </c>
+      <c r="M62" t="n">
         <v>12</v>
       </c>
-      <c r="E62" t="n">
+      <c r="N62" t="n">
         <v>5</v>
       </c>
-      <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3</v>
-      </c>
-      <c r="H62" t="n">
-        <v>23</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2</v>
-      </c>
-      <c r="L62" t="n">
-        <v>31</v>
-      </c>
-      <c r="M62" t="n">
-        <v>8</v>
-      </c>
-      <c r="N62" t="n">
-        <v>3</v>
-      </c>
       <c r="O62" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y62" t="n">
         <v>2</v>
       </c>
       <c r="Z62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB62" t="n">
         <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG62" t="n">
         <v>11</v>
       </c>
-      <c r="AE62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG62" t="n">
+      <c r="AH62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI62" t="n">
         <v>8</v>
       </c>
-      <c r="AH62" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>3</v>
-      </c>
       <c r="AJ62" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AK62" t="n">
         <v>2</v>
@@ -52099,133 +52099,133 @@
         <v>3</v>
       </c>
       <c r="AN62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO62" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AP62" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AQ62" t="n">
         <v>6</v>
       </c>
       <c r="AR62" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS62" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AT62" t="n">
         <v>2</v>
       </c>
       <c r="AU62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV62" t="n">
         <v>1</v>
       </c>
       <c r="AW62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>35</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>79</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR62" t="n">
         <v>1</v>
       </c>
-      <c r="AX62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>54</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM62" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ62" t="n">
-        <v>24</v>
-      </c>
-      <c r="BR62" t="n">
-        <v>2</v>
-      </c>
       <c r="BS62" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="BT62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW62" t="n">
         <v>6</v>
       </c>
-      <c r="BV62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW62" t="n">
-        <v>3</v>
-      </c>
       <c r="BX62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BZ62" t="n">
         <v>0</v>
       </c>
       <c r="CA62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB62" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="CC62" t="n">
         <v>6</v>
       </c>
       <c r="CD62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE62" t="n">
         <v>0</v>
@@ -52234,25 +52234,25 @@
         <v>1</v>
       </c>
       <c r="CG62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CI62" t="n">
         <v>1</v>
       </c>
       <c r="CJ62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM62" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="CN62" t="n">
         <v>3</v>
@@ -52261,58 +52261,58 @@
         <v>1</v>
       </c>
       <c r="CP62" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ62" t="n">
+        <v>17</v>
+      </c>
+      <c r="CR62" t="n">
         <v>1</v>
       </c>
-      <c r="CQ62" t="n">
-        <v>31</v>
-      </c>
-      <c r="CR62" t="n">
-        <v>3</v>
-      </c>
       <c r="CS62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CT62" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="CU62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CV62" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="CW62" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CX62" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY62" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA62" t="n">
         <v>1</v>
       </c>
-      <c r="CY62" t="n">
+      <c r="DB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC62" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD62" t="n">
+        <v>22</v>
+      </c>
+      <c r="DE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF62" t="n">
         <v>1</v>
       </c>
-      <c r="CZ62" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA62" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB62" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC62" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD62" t="n">
-        <v>25</v>
-      </c>
-      <c r="DE62" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF62" t="n">
-        <v>2</v>
-      </c>
       <c r="DG62" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="DH62" t="n">
         <v>2</v>
@@ -52321,22 +52321,22 @@
         <v>1</v>
       </c>
       <c r="DJ62" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DK62" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DL62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DO62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP62" t="n">
         <v>2</v>
@@ -52345,130 +52345,130 @@
         <v>3</v>
       </c>
       <c r="DR62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DS62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DT62" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU62" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV62" t="n">
+        <v>11</v>
+      </c>
+      <c r="DW62" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX62" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY62" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ62" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA62" t="n">
         <v>3</v>
       </c>
-      <c r="DU62" t="n">
-        <v>9</v>
-      </c>
-      <c r="DV62" t="n">
-        <v>7</v>
-      </c>
-      <c r="DW62" t="n">
-        <v>11</v>
-      </c>
-      <c r="DX62" t="n">
-        <v>2</v>
-      </c>
-      <c r="DY62" t="n">
-        <v>2</v>
-      </c>
-      <c r="DZ62" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA62" t="n">
-        <v>10</v>
-      </c>
       <c r="EB62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EC62" t="n">
         <v>1</v>
       </c>
       <c r="ED62" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="EE62" t="n">
         <v>12</v>
       </c>
       <c r="EF62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EG62" t="n">
         <v>2</v>
       </c>
       <c r="EH62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EI62" t="n">
+        <v>10</v>
+      </c>
+      <c r="EJ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK62" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL62" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM62" t="n">
         <v>8</v>
       </c>
-      <c r="EJ62" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL62" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM62" t="n">
+      <c r="EN62" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO62" t="n">
         <v>3</v>
       </c>
-      <c r="EN62" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO62" t="n">
-        <v>4</v>
-      </c>
       <c r="EP62" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="EQ62" t="n">
         <v>2</v>
       </c>
       <c r="ER62" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="ES62" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="ET62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EV62" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="EW62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EY62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EZ62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FA62" t="n">
         <v>1</v>
       </c>
       <c r="FB62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FC62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FD62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FE62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF62" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG62" t="n">
         <v>4</v>
-      </c>
-      <c r="FG62" t="n">
-        <v>2</v>
       </c>
       <c r="FH62" t="n">
         <v>8</v>
@@ -52480,196 +52480,196 @@
         <v>2</v>
       </c>
       <c r="FK62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL62" t="n">
         <v>5</v>
       </c>
       <c r="FM62" t="n">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="FN62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FO62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FP62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FQ62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FS62" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="FT62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FV62" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="FW62" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="FX62" t="n">
         <v>4</v>
       </c>
       <c r="FY62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FZ62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GA62" t="n">
         <v>1</v>
       </c>
       <c r="GB62" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="GC62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GD62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="GF62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GG62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="GH62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="GI62" t="n">
         <v>2</v>
       </c>
       <c r="GJ62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GL62" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GM62" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="GN62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GQ62" t="n">
         <v>2</v>
       </c>
       <c r="GR62" t="n">
+        <v>7</v>
+      </c>
+      <c r="GS62" t="n">
+        <v>23</v>
+      </c>
+      <c r="GT62" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU62" t="n">
         <v>5</v>
       </c>
-      <c r="GS62" t="n">
-        <v>17</v>
-      </c>
-      <c r="GT62" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU62" t="n">
-        <v>2</v>
-      </c>
       <c r="GV62" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="GW62" t="n">
         <v>6</v>
       </c>
       <c r="GX62" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY62" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ62" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA62" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC62" t="n">
+        <v>19</v>
+      </c>
+      <c r="HD62" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE62" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF62" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG62" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH62" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI62" t="n">
+        <v>82</v>
+      </c>
+      <c r="HJ62" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK62" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO62" t="n">
         <v>3</v>
       </c>
-      <c r="GY62" t="n">
+      <c r="HP62" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR62" t="n">
+        <v>24</v>
+      </c>
+      <c r="HS62" t="n">
         <v>9</v>
       </c>
-      <c r="GZ62" t="n">
-        <v>80</v>
-      </c>
-      <c r="HA62" t="n">
-        <v>3</v>
-      </c>
-      <c r="HB62" t="n">
-        <v>2</v>
-      </c>
-      <c r="HC62" t="n">
-        <v>10</v>
-      </c>
-      <c r="HD62" t="n">
-        <v>2</v>
-      </c>
-      <c r="HE62" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF62" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG62" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH62" t="n">
-        <v>6</v>
-      </c>
-      <c r="HI62" t="n">
-        <v>49</v>
-      </c>
-      <c r="HJ62" t="n">
-        <v>5</v>
-      </c>
-      <c r="HK62" t="n">
-        <v>2</v>
-      </c>
-      <c r="HL62" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM62" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN62" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO62" t="n">
-        <v>4</v>
-      </c>
-      <c r="HP62" t="n">
-        <v>2</v>
-      </c>
-      <c r="HQ62" t="n">
-        <v>5</v>
-      </c>
-      <c r="HR62" t="n">
-        <v>28</v>
-      </c>
-      <c r="HS62" t="n">
-        <v>4</v>
-      </c>
       <c r="HT62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="HU62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HV62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HW62" t="n">
         <v>1</v>
@@ -52678,70 +52678,70 @@
         <v>8</v>
       </c>
       <c r="HY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ62" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA62" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC62" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID62" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE62" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF62" t="n">
+        <v>14</v>
+      </c>
+      <c r="IG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH62" t="n">
+        <v>2</v>
+      </c>
+      <c r="II62" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK62" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL62" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM62" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN62" t="n">
         <v>1</v>
       </c>
-      <c r="HZ62" t="n">
-        <v>8</v>
-      </c>
-      <c r="IA62" t="n">
-        <v>3</v>
-      </c>
-      <c r="IB62" t="n">
-        <v>2</v>
-      </c>
-      <c r="IC62" t="n">
-        <v>9</v>
-      </c>
-      <c r="ID62" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE62" t="n">
-        <v>3</v>
-      </c>
-      <c r="IF62" t="n">
-        <v>6</v>
-      </c>
-      <c r="IG62" t="n">
-        <v>6</v>
-      </c>
-      <c r="IH62" t="n">
-        <v>3</v>
-      </c>
-      <c r="II62" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ62" t="n">
-        <v>4</v>
-      </c>
-      <c r="IK62" t="n">
-        <v>11</v>
-      </c>
-      <c r="IL62" t="n">
-        <v>7</v>
-      </c>
-      <c r="IM62" t="n">
-        <v>9</v>
-      </c>
-      <c r="IN62" t="n">
-        <v>2</v>
-      </c>
       <c r="IO62" t="n">
         <v>2</v>
       </c>
       <c r="IP62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ62" t="n">
         <v>1</v>
       </c>
       <c r="IR62" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="IS62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="IT62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IU62" t="n">
         <v>0</v>
@@ -52750,28 +52750,28 @@
         <v>2</v>
       </c>
       <c r="IW62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IX62" t="n">
         <v>1</v>
       </c>
       <c r="IY62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IZ62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JA62" t="n">
         <v>0</v>
       </c>
       <c r="JB62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JD62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JE62" t="n">
         <v>0</v>
@@ -52786,34 +52786,34 @@
         <v>2</v>
       </c>
       <c r="JI62" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="JJ62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="JK62" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL62" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN62" t="n">
         <v>1</v>
       </c>
-      <c r="JL62" t="n">
-        <v>7</v>
-      </c>
-      <c r="JM62" t="n">
+      <c r="JO62" t="n">
         <v>4</v>
       </c>
-      <c r="JN62" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO62" t="n">
-        <v>1</v>
-      </c>
       <c r="JP62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JQ62" t="n">
         <v>4</v>
       </c>
       <c r="JR62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -52821,247 +52821,247 @@
         <v>2026</v>
       </c>
       <c r="B63" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>56</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>55</v>
+      </c>
+      <c r="M63" t="n">
         <v>12</v>
       </c>
-      <c r="E63" t="n">
+      <c r="N63" t="n">
         <v>5</v>
       </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2</v>
-      </c>
-      <c r="L63" t="n">
-        <v>32</v>
-      </c>
-      <c r="M63" t="n">
-        <v>8</v>
-      </c>
-      <c r="N63" t="n">
-        <v>3</v>
-      </c>
       <c r="O63" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
+        <v>5</v>
+      </c>
+      <c r="W63" t="n">
+        <v>4</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z63" t="n">
         <v>3</v>
       </c>
-      <c r="W63" t="n">
-        <v>3</v>
-      </c>
-      <c r="X63" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>1</v>
-      </c>
       <c r="AA63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB63" t="n">
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG63" t="n">
         <v>11</v>
       </c>
-      <c r="AE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG63" t="n">
+      <c r="AH63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI63" t="n">
         <v>8</v>
       </c>
-      <c r="AH63" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>3</v>
-      </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AK63" t="n">
         <v>2</v>
       </c>
       <c r="AL63" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM63" t="n">
         <v>3</v>
       </c>
       <c r="AN63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO63" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AP63" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AQ63" t="n">
         <v>6</v>
       </c>
       <c r="AR63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS63" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV63" t="n">
         <v>1</v>
       </c>
       <c r="AW63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>35</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>79</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR63" t="n">
         <v>1</v>
       </c>
-      <c r="AX63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>55</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH63" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI63" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL63" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM63" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN63" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO63" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP63" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ63" t="n">
-        <v>24</v>
-      </c>
-      <c r="BR63" t="n">
-        <v>2</v>
-      </c>
       <c r="BS63" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BT63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW63" t="n">
         <v>6</v>
       </c>
-      <c r="BV63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW63" t="n">
-        <v>3</v>
-      </c>
       <c r="BX63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BZ63" t="n">
         <v>0</v>
       </c>
       <c r="CA63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB63" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="CC63" t="n">
         <v>6</v>
       </c>
       <c r="CD63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE63" t="n">
         <v>0</v>
@@ -53070,25 +53070,25 @@
         <v>1</v>
       </c>
       <c r="CG63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CI63" t="n">
         <v>1</v>
       </c>
       <c r="CJ63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM63" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="CN63" t="n">
         <v>3</v>
@@ -53097,58 +53097,58 @@
         <v>1</v>
       </c>
       <c r="CP63" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ63" t="n">
+        <v>17</v>
+      </c>
+      <c r="CR63" t="n">
         <v>1</v>
       </c>
-      <c r="CQ63" t="n">
-        <v>32</v>
-      </c>
-      <c r="CR63" t="n">
-        <v>3</v>
-      </c>
       <c r="CS63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CT63" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU63" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV63" t="n">
         <v>19</v>
       </c>
-      <c r="CU63" t="n">
-        <v>13</v>
-      </c>
-      <c r="CV63" t="n">
+      <c r="CW63" t="n">
+        <v>17</v>
+      </c>
+      <c r="CX63" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY63" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ63" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA63" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC63" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD63" t="n">
         <v>21</v>
       </c>
-      <c r="CW63" t="n">
-        <v>19</v>
-      </c>
-      <c r="CX63" t="n">
+      <c r="DE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF63" t="n">
         <v>1</v>
       </c>
-      <c r="CY63" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA63" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB63" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC63" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD63" t="n">
-        <v>25</v>
-      </c>
-      <c r="DE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF63" t="n">
-        <v>2</v>
-      </c>
       <c r="DG63" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="DH63" t="n">
         <v>2</v>
@@ -53157,22 +53157,22 @@
         <v>1</v>
       </c>
       <c r="DJ63" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DK63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DL63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DO63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP63" t="n">
         <v>2</v>
@@ -53181,130 +53181,130 @@
         <v>3</v>
       </c>
       <c r="DR63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DS63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DT63" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU63" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV63" t="n">
+        <v>11</v>
+      </c>
+      <c r="DW63" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX63" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY63" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ63" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA63" t="n">
         <v>3</v>
       </c>
-      <c r="DU63" t="n">
-        <v>10</v>
-      </c>
-      <c r="DV63" t="n">
-        <v>7</v>
-      </c>
-      <c r="DW63" t="n">
-        <v>12</v>
-      </c>
-      <c r="DX63" t="n">
-        <v>2</v>
-      </c>
-      <c r="DY63" t="n">
-        <v>2</v>
-      </c>
-      <c r="DZ63" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA63" t="n">
-        <v>10</v>
-      </c>
       <c r="EB63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EC63" t="n">
         <v>1</v>
       </c>
       <c r="ED63" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="EE63" t="n">
         <v>12</v>
       </c>
       <c r="EF63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EG63" t="n">
         <v>2</v>
       </c>
       <c r="EH63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EI63" t="n">
+        <v>10</v>
+      </c>
+      <c r="EJ63" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK63" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL63" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM63" t="n">
         <v>8</v>
       </c>
-      <c r="EJ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL63" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM63" t="n">
+      <c r="EN63" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO63" t="n">
         <v>3</v>
       </c>
-      <c r="EN63" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO63" t="n">
-        <v>4</v>
-      </c>
       <c r="EP63" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="EQ63" t="n">
         <v>2</v>
       </c>
       <c r="ER63" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="ES63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="ET63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EV63" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="EW63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EY63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EZ63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FA63" t="n">
         <v>1</v>
       </c>
       <c r="FB63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FC63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FD63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FE63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF63" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG63" t="n">
         <v>4</v>
-      </c>
-      <c r="FG63" t="n">
-        <v>2</v>
       </c>
       <c r="FH63" t="n">
         <v>8</v>
@@ -53316,73 +53316,73 @@
         <v>2</v>
       </c>
       <c r="FK63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL63" t="n">
         <v>5</v>
       </c>
       <c r="FM63" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="FN63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FO63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FP63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FQ63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FS63" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="FT63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FV63" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="FW63" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="FX63" t="n">
         <v>4</v>
       </c>
       <c r="FY63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FZ63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GA63" t="n">
         <v>1</v>
       </c>
       <c r="GB63" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="GC63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GD63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="GF63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GG63" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="GH63" t="n">
         <v>5</v>
@@ -53391,121 +53391,121 @@
         <v>2</v>
       </c>
       <c r="GJ63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GL63" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GM63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="GN63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GQ63" t="n">
         <v>2</v>
       </c>
       <c r="GR63" t="n">
+        <v>7</v>
+      </c>
+      <c r="GS63" t="n">
+        <v>23</v>
+      </c>
+      <c r="GT63" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU63" t="n">
         <v>5</v>
       </c>
-      <c r="GS63" t="n">
-        <v>18</v>
-      </c>
-      <c r="GT63" t="n">
-        <v>2</v>
-      </c>
-      <c r="GU63" t="n">
-        <v>2</v>
-      </c>
       <c r="GV63" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="GW63" t="n">
         <v>6</v>
       </c>
       <c r="GX63" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY63" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ63" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA63" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC63" t="n">
+        <v>19</v>
+      </c>
+      <c r="HD63" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE63" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF63" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG63" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH63" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI63" t="n">
+        <v>82</v>
+      </c>
+      <c r="HJ63" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK63" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM63" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO63" t="n">
         <v>3</v>
       </c>
-      <c r="GY63" t="n">
+      <c r="HP63" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR63" t="n">
+        <v>25</v>
+      </c>
+      <c r="HS63" t="n">
         <v>9</v>
       </c>
-      <c r="GZ63" t="n">
-        <v>82</v>
-      </c>
-      <c r="HA63" t="n">
-        <v>3</v>
-      </c>
-      <c r="HB63" t="n">
-        <v>2</v>
-      </c>
-      <c r="HC63" t="n">
-        <v>10</v>
-      </c>
-      <c r="HD63" t="n">
-        <v>2</v>
-      </c>
-      <c r="HE63" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF63" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG63" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH63" t="n">
+      <c r="HT63" t="n">
         <v>7</v>
       </c>
-      <c r="HI63" t="n">
-        <v>50</v>
-      </c>
-      <c r="HJ63" t="n">
-        <v>5</v>
-      </c>
-      <c r="HK63" t="n">
-        <v>2</v>
-      </c>
-      <c r="HL63" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM63" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN63" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO63" t="n">
-        <v>4</v>
-      </c>
-      <c r="HP63" t="n">
-        <v>2</v>
-      </c>
-      <c r="HQ63" t="n">
-        <v>5</v>
-      </c>
-      <c r="HR63" t="n">
-        <v>29</v>
-      </c>
-      <c r="HS63" t="n">
-        <v>4</v>
-      </c>
-      <c r="HT63" t="n">
-        <v>4</v>
-      </c>
       <c r="HU63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HV63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HW63" t="n">
         <v>1</v>
@@ -53514,70 +53514,70 @@
         <v>8</v>
       </c>
       <c r="HY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ63" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA63" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC63" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID63" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE63" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF63" t="n">
+        <v>14</v>
+      </c>
+      <c r="IG63" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH63" t="n">
+        <v>2</v>
+      </c>
+      <c r="II63" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ63" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK63" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL63" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM63" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN63" t="n">
         <v>1</v>
       </c>
-      <c r="HZ63" t="n">
-        <v>8</v>
-      </c>
-      <c r="IA63" t="n">
-        <v>3</v>
-      </c>
-      <c r="IB63" t="n">
-        <v>2</v>
-      </c>
-      <c r="IC63" t="n">
-        <v>9</v>
-      </c>
-      <c r="ID63" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE63" t="n">
-        <v>3</v>
-      </c>
-      <c r="IF63" t="n">
-        <v>6</v>
-      </c>
-      <c r="IG63" t="n">
-        <v>6</v>
-      </c>
-      <c r="IH63" t="n">
-        <v>3</v>
-      </c>
-      <c r="II63" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ63" t="n">
-        <v>5</v>
-      </c>
-      <c r="IK63" t="n">
-        <v>11</v>
-      </c>
-      <c r="IL63" t="n">
-        <v>7</v>
-      </c>
-      <c r="IM63" t="n">
-        <v>9</v>
-      </c>
-      <c r="IN63" t="n">
-        <v>2</v>
-      </c>
       <c r="IO63" t="n">
         <v>2</v>
       </c>
       <c r="IP63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ63" t="n">
         <v>1</v>
       </c>
       <c r="IR63" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="IS63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="IT63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IU63" t="n">
         <v>0</v>
@@ -53586,28 +53586,28 @@
         <v>2</v>
       </c>
       <c r="IW63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IX63" t="n">
         <v>1</v>
       </c>
       <c r="IY63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IZ63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JA63" t="n">
         <v>0</v>
       </c>
       <c r="JB63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JD63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JE63" t="n">
         <v>0</v>
@@ -53622,34 +53622,34 @@
         <v>2</v>
       </c>
       <c r="JI63" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="JJ63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="JK63" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL63" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM63" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN63" t="n">
         <v>1</v>
       </c>
-      <c r="JL63" t="n">
-        <v>7</v>
-      </c>
-      <c r="JM63" t="n">
+      <c r="JO63" t="n">
         <v>4</v>
       </c>
-      <c r="JN63" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO63" t="n">
-        <v>1</v>
-      </c>
       <c r="JP63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JQ63" t="n">
         <v>4</v>
       </c>
       <c r="JR63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
